--- a/data/trans_orig/P1805_2016_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1805_2016_2023-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>10746</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5531</v>
+        <v>4864</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19131</v>
+        <v>18897</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03658098708504151</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01882837645532474</v>
+        <v>0.01655621667491331</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06512273665131392</v>
+        <v>0.06432711787037207</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -763,19 +763,19 @@
         <v>20993</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13672</v>
+        <v>13408</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32068</v>
+        <v>32103</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07271327527060412</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04735669171682985</v>
+        <v>0.04644052071281347</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1110758460268521</v>
+        <v>0.1111971785866382</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -784,19 +784,19 @@
         <v>31739</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21290</v>
+        <v>21935</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44284</v>
+        <v>44243</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05449024839311715</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03655135510882365</v>
+        <v>0.03765938634392622</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07602934007290764</v>
+        <v>0.07595828537830447</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>283015</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>274630</v>
+        <v>274864</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288230</v>
+        <v>288897</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9634190129149585</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9348772633486861</v>
+        <v>0.9356728821296278</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9811716235446755</v>
+        <v>0.9834437833250866</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>257</v>
@@ -834,19 +834,19 @@
         <v>267710</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>256635</v>
+        <v>256600</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>275031</v>
+        <v>275295</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9272867247293959</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8889241539731478</v>
+        <v>0.8888028214133619</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9526433082831703</v>
+        <v>0.9535594792871865</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>513</v>
@@ -855,19 +855,19 @@
         <v>550725</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>538180</v>
+        <v>538221</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>561174</v>
+        <v>560529</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9455097516068829</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9239706599270922</v>
+        <v>0.9240417146216948</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9634486448911762</v>
+        <v>0.9623406136560736</v>
       </c>
     </row>
     <row r="6">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7118</v>
+        <v>6126</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004045100549859841</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01416368427671692</v>
+        <v>0.01218934906912016</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -980,19 +980,19 @@
         <v>6087</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2923</v>
+        <v>2045</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13190</v>
+        <v>13097</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01163754681727191</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005587715093280574</v>
+        <v>0.00390942268556229</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02521568292544595</v>
+        <v>0.02503730161537623</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -1001,19 +1001,19 @@
         <v>8120</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3978</v>
+        <v>3929</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15121</v>
+        <v>15344</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007917231310095217</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003878111694853687</v>
+        <v>0.00383067451532741</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01474245270109947</v>
+        <v>0.01496059299293078</v>
       </c>
     </row>
     <row r="8">
@@ -1030,7 +1030,7 @@
         <v>500542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>495457</v>
+        <v>496449</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>502575</v>
@@ -1039,7 +1039,7 @@
         <v>0.9959548994501402</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9858363157232831</v>
+        <v>0.9878106509308798</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1051,19 +1051,19 @@
         <v>516997</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>509894</v>
+        <v>509987</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>520161</v>
+        <v>521039</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9883624531827281</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9747843170745539</v>
+        <v>0.9749626983846238</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9944122849067194</v>
+        <v>0.9960905773144377</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>951</v>
@@ -1072,19 +1072,19 @@
         <v>1017539</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1010538</v>
+        <v>1010315</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1021681</v>
+        <v>1021730</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9920827686899047</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9852575472989004</v>
+        <v>0.9850394070070692</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9961218883051464</v>
+        <v>0.9961693254846725</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>5204</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1924</v>
+        <v>1985</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11649</v>
+        <v>12398</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0163360997439732</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006039029484968345</v>
+        <v>0.006231740349518384</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03656584332680619</v>
+        <v>0.03891979573176686</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1197,19 +1197,19 @@
         <v>15009</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7511</v>
+        <v>8287</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25037</v>
+        <v>25007</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04462764085705389</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02233425447105267</v>
+        <v>0.02463954473786864</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07444509171688884</v>
+        <v>0.07435790666612806</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1218,19 +1218,19 @@
         <v>20213</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12200</v>
+        <v>12089</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31688</v>
+        <v>30336</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03086515413077986</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01862894009869637</v>
+        <v>0.01845976316331855</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04838852617268972</v>
+        <v>0.04632363183074267</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>313361</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>306916</v>
+        <v>306167</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316641</v>
+        <v>316580</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9836639002560268</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9634341566731939</v>
+        <v>0.961080204268233</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9939609705150317</v>
+        <v>0.9937682596504817</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>319</v>
@@ -1268,19 +1268,19 @@
         <v>321300</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>311272</v>
+        <v>311302</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>328798</v>
+        <v>328022</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9553723591429462</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9255549082831105</v>
+        <v>0.9256420933338722</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9776657455289474</v>
+        <v>0.9753604552621314</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>649</v>
@@ -1289,19 +1289,19 @@
         <v>634661</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>623186</v>
+        <v>624538</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>642674</v>
+        <v>642785</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9691348458692202</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9516114738273109</v>
+        <v>0.9536763681692574</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9813710599013038</v>
+        <v>0.9815402368366813</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>9234</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4310</v>
+        <v>4365</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16689</v>
+        <v>16748</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02496004640062954</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01164971744938695</v>
+        <v>0.01179739850891375</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04510994004758768</v>
+        <v>0.04526880422177389</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1414,19 +1414,19 @@
         <v>12572</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7014</v>
+        <v>6333</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20982</v>
+        <v>20834</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03246313314174519</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01811156775513472</v>
+        <v>0.01635123216760628</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05417749312239525</v>
+        <v>0.05379565677190644</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1435,19 +1435,19 @@
         <v>21807</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13401</v>
+        <v>13944</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33439</v>
+        <v>33475</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02879739135207695</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01769717385444576</v>
+        <v>0.01841345381106845</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04415917505933924</v>
+        <v>0.04420625169064148</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>360730</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>353275</v>
+        <v>353216</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>365654</v>
+        <v>365599</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9750399535993705</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9548900599524123</v>
+        <v>0.9547311957782262</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9883502825506131</v>
+        <v>0.9882026014910863</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>346</v>
@@ -1485,19 +1485,19 @@
         <v>374711</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>366301</v>
+        <v>366449</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>380269</v>
+        <v>380950</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9675368668582548</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9458225068776047</v>
+        <v>0.9462043432280937</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9818884322448653</v>
+        <v>0.9836487678323937</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>691</v>
@@ -1506,19 +1506,19 @@
         <v>735440</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>723808</v>
+        <v>723772</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>743846</v>
+        <v>743303</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9712026086479231</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9558408249406608</v>
+        <v>0.9557937483093585</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9823028261455542</v>
+        <v>0.9815865461889315</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>6416</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2381</v>
+        <v>2017</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12984</v>
+        <v>13155</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0303762702001554</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0112724653581171</v>
+        <v>0.009548232203734538</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06147037026652031</v>
+        <v>0.062282319421204</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1631,19 +1631,19 @@
         <v>3736</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8622</v>
+        <v>9354</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01709288333654999</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004431922068298448</v>
+        <v>0.004373103942758686</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03944452110328254</v>
+        <v>0.04279081660605079</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1652,19 +1652,19 @@
         <v>10152</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4833</v>
+        <v>4722</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18270</v>
+        <v>18472</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0236207521639211</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01124383449238751</v>
+        <v>0.01098514411006104</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04250847005066003</v>
+        <v>0.04297670849820556</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>204805</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198237</v>
+        <v>198066</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>208840</v>
+        <v>209204</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9696237297998446</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9385296297334799</v>
+        <v>0.9377176805787962</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.988727534641883</v>
+        <v>0.9904517677962654</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>219</v>
@@ -1702,19 +1702,19 @@
         <v>214851</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>209965</v>
+        <v>209233</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217618</v>
+        <v>217631</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.98290711666345</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9605554788967176</v>
+        <v>0.9572091833939492</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9955680779317015</v>
+        <v>0.9956268960572413</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>425</v>
@@ -1723,19 +1723,19 @@
         <v>419656</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>411538</v>
+        <v>411336</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>424975</v>
+        <v>425086</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9763792478360789</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9574915299493399</v>
+        <v>0.9570232915017939</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9887561655076125</v>
+        <v>0.9890148558899388</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>2971</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8547</v>
+        <v>7975</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01129134415614862</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003687930367964035</v>
+        <v>0.003680684675636707</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03248400710472867</v>
+        <v>0.0303098873606505</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1848,19 +1848,19 @@
         <v>10569</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5401</v>
+        <v>5280</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18529</v>
+        <v>18185</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.038698095503243</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01977613001083879</v>
+        <v>0.01933132773194386</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0678417777447745</v>
+        <v>0.06658254822571885</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -1869,19 +1869,19 @@
         <v>13540</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7337</v>
+        <v>7344</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23096</v>
+        <v>21675</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02525006194834255</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01368188556230275</v>
+        <v>0.01369595174370646</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04307099753253284</v>
+        <v>0.04041966806315424</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>260152</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254576</v>
+        <v>255148</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262153</v>
+        <v>262155</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9887086558438514</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9675159928952722</v>
+        <v>0.9696901126393498</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9963120696320359</v>
+        <v>0.9963193153243634</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>253</v>
@@ -1919,19 +1919,19 @@
         <v>262546</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>254586</v>
+        <v>254930</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>267714</v>
+        <v>267835</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.961301904496757</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9321582222552255</v>
+        <v>0.933417451774281</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9802238699891611</v>
+        <v>0.9806686722680561</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>509</v>
@@ -1940,19 +1940,19 @@
         <v>522698</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>513142</v>
+        <v>514563</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>528901</v>
+        <v>528894</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9747499380516574</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9569290024674674</v>
+        <v>0.959580331936846</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9863181144376973</v>
+        <v>0.9863040482562936</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>6501</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2243</v>
+        <v>2271</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13701</v>
+        <v>12868</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009901246375883615</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003416388417395704</v>
+        <v>0.00345900295393145</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02086867591974759</v>
+        <v>0.01959950555331732</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -2065,19 +2065,19 @@
         <v>23601</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15173</v>
+        <v>15108</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35839</v>
+        <v>35189</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03413978973745659</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02194934920123019</v>
+        <v>0.02185429338572179</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05184283820514309</v>
+        <v>0.05090368002090828</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -2086,19 +2086,19 @@
         <v>30101</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20030</v>
+        <v>19906</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42667</v>
+        <v>43371</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02233284838897726</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01486054400775555</v>
+        <v>0.01476877802796777</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03165581150638517</v>
+        <v>0.03217794082512326</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>650057</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>642857</v>
+        <v>643690</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>654315</v>
+        <v>654287</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9900987536241164</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9791313240802522</v>
+        <v>0.980400494446682</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9965836115826043</v>
+        <v>0.9965409970460685</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>626</v>
@@ -2136,19 +2136,19 @@
         <v>667693</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>655455</v>
+        <v>656105</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>676121</v>
+        <v>676186</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9658602102625434</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.948157161794857</v>
+        <v>0.9490963199790918</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9780506507987698</v>
+        <v>0.9781457066142784</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1200</v>
@@ -2157,19 +2157,19 @@
         <v>1317751</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1305185</v>
+        <v>1304481</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1327822</v>
+        <v>1327946</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9776671516110228</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9683441884936147</v>
+        <v>0.9678220591748773</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9851394559922444</v>
+        <v>0.9852312219720323</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>17958</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11817</v>
+        <v>11469</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29634</v>
+        <v>28789</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02306463012191926</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01517819721542856</v>
+        <v>0.01473016168057315</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03806161534109477</v>
+        <v>0.03697669582119613</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>32</v>
@@ -2282,19 +2282,19 @@
         <v>38372</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27025</v>
+        <v>25901</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>53989</v>
+        <v>52350</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04644529674248245</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03271138197877905</v>
+        <v>0.03135047042145869</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06534829658542732</v>
+        <v>0.06336524334983676</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>50</v>
@@ -2303,19 +2303,19 @@
         <v>56329</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>42691</v>
+        <v>41997</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>75051</v>
+        <v>72390</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03510160489127258</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02660292436274769</v>
+        <v>0.02617051247132621</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04676790571496046</v>
+        <v>0.04511005731158495</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>760625</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>748949</v>
+        <v>749794</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>766766</v>
+        <v>767114</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9769353698780807</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.961938384658906</v>
+        <v>0.963023304178803</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9848218027845715</v>
+        <v>0.9852698383194268</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>723</v>
@@ -2353,19 +2353,19 @@
         <v>787795</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>772178</v>
+        <v>773817</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>799142</v>
+        <v>800266</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9535547032575176</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9346517034145728</v>
+        <v>0.9366347566501633</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9672886180212209</v>
+        <v>0.9686495295785412</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1455</v>
@@ -2374,19 +2374,19 @@
         <v>1548421</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1529699</v>
+        <v>1532360</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1562059</v>
+        <v>1562753</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9648983951087274</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9532320942850394</v>
+        <v>0.9548899426884151</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9733970756372523</v>
+        <v>0.9738294875286736</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>61063</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>46781</v>
+        <v>46892</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>78981</v>
+        <v>79159</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01798961416410113</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01378210242144679</v>
+        <v>0.01381486521932425</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02326835330569722</v>
+        <v>0.02332095191740951</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>117</v>
@@ -2499,19 +2499,19 @@
         <v>130939</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>109804</v>
+        <v>109774</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>157834</v>
+        <v>158471</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03694089890581467</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03097832295431817</v>
+        <v>0.03096975828224681</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04452888334923696</v>
+        <v>0.04470853205021531</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>176</v>
@@ -2520,19 +2520,19 @@
         <v>192002</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>164497</v>
+        <v>163084</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>220810</v>
+        <v>221270</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02767035590064896</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02370652287993969</v>
+        <v>0.02350293450290672</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03182202900836666</v>
+        <v>0.03188838294919832</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>3333287</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3315369</v>
+        <v>3315191</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3347569</v>
+        <v>3347458</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9820103858358988</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9767316466943028</v>
+        <v>0.9766790480825905</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9862178975785532</v>
+        <v>0.9861851347806757</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3221</v>
@@ -2570,19 +2570,19 @@
         <v>3413603</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3386708</v>
+        <v>3386071</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3434738</v>
+        <v>3434768</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9630591010941854</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.955471116650763</v>
+        <v>0.9552914679497847</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9690216770456819</v>
+        <v>0.9690302417177532</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6393</v>
@@ -2591,19 +2591,19 @@
         <v>6746890</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6718082</v>
+        <v>6717622</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6774395</v>
+        <v>6775808</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9723296440993511</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9681779709916331</v>
+        <v>0.9681116170508012</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9762934771200601</v>
+        <v>0.9764970654970933</v>
       </c>
     </row>
     <row r="30">
@@ -2942,16 +2942,16 @@
         <v>863</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8686</v>
+        <v>8331</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.009864286942020219</v>
+        <v>0.00986428694202022</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002707892529493642</v>
+        <v>0.002706395092539546</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02724331172617178</v>
+        <v>0.02612741822434419</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -2960,19 +2960,19 @@
         <v>8212</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4767</v>
+        <v>5169</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13086</v>
+        <v>13098</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02598123253732369</v>
+        <v>0.0259812325373237</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01508405842366976</v>
+        <v>0.01635444595983033</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04140284242498483</v>
+        <v>0.04144196537139704</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -2981,19 +2981,19 @@
         <v>11357</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7167</v>
+        <v>7005</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18610</v>
+        <v>18843</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01788741603017964</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01128772598268545</v>
+        <v>0.01103391378683029</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02931130506646035</v>
+        <v>0.02967769372339992</v>
       </c>
     </row>
     <row r="5">
@@ -3010,7 +3010,7 @@
         <v>315700</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>310159</v>
+        <v>310514</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>317982</v>
@@ -3019,10 +3019,10 @@
         <v>0.9901357130579798</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9727566882738283</v>
+        <v>0.9738725817756558</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9972921074705063</v>
+        <v>0.9972936049074606</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>522</v>
@@ -3031,19 +3031,19 @@
         <v>307849</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>302975</v>
+        <v>302963</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311294</v>
+        <v>310892</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9740187674626762</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9585971575750157</v>
+        <v>0.9585580346286033</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9849159415763303</v>
+        <v>0.9836455540401697</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>850</v>
@@ -3052,19 +3052,19 @@
         <v>623549</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>616296</v>
+        <v>616063</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>627739</v>
+        <v>627901</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9821125839698204</v>
+        <v>0.9821125839698205</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9706886949335396</v>
+        <v>0.9703223062765997</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9887122740173145</v>
+        <v>0.9889660862131696</v>
       </c>
     </row>
     <row r="6">
@@ -3156,19 +3156,19 @@
         <v>19860</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10330</v>
+        <v>10672</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33274</v>
+        <v>33390</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03742621254967295</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01946730420292669</v>
+        <v>0.02011205123898406</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06270479520017989</v>
+        <v>0.06292259689135031</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -3177,19 +3177,19 @@
         <v>21269</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14243</v>
+        <v>13427</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32584</v>
+        <v>32531</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0390102465485754</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02612387581982752</v>
+        <v>0.02462638358085565</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05976376567586737</v>
+        <v>0.05966636491699206</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -3198,19 +3198,19 @@
         <v>41129</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29103</v>
+        <v>28681</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57314</v>
+        <v>56680</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03822895287533649</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02705127229901696</v>
+        <v>0.02665857088918899</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05327245519141881</v>
+        <v>0.05268341707748622</v>
       </c>
     </row>
     <row r="8">
@@ -3227,19 +3227,19 @@
         <v>510787</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>497373</v>
+        <v>497257</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>520317</v>
+        <v>519975</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9625737874503271</v>
+        <v>0.962573787450327</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9372952047998194</v>
+        <v>0.9370774031086496</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9805326957970734</v>
+        <v>0.9798879487610157</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>689</v>
@@ -3248,19 +3248,19 @@
         <v>523944</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>512629</v>
+        <v>512682</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>530970</v>
+        <v>531786</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9609897534514246</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9402362343241326</v>
+        <v>0.940333635083008</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9738761241801724</v>
+        <v>0.9753736164191446</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1058</v>
@@ -3269,19 +3269,19 @@
         <v>1034731</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1018546</v>
+        <v>1019180</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1046757</v>
+        <v>1047179</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9617710471246635</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9467275448085812</v>
+        <v>0.9473165829225136</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9729487277009831</v>
+        <v>0.9733414291108108</v>
       </c>
     </row>
     <row r="9">
@@ -3373,19 +3373,19 @@
         <v>10526</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5123</v>
+        <v>5387</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19393</v>
+        <v>20437</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03331097576250229</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01621345752265308</v>
+        <v>0.01704692507002416</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06137031153802678</v>
+        <v>0.06467437819581888</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -3394,19 +3394,19 @@
         <v>19177</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12789</v>
+        <v>12754</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26569</v>
+        <v>26776</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05381057232656532</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03588480030783989</v>
+        <v>0.0357871852071474</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07455129765124596</v>
+        <v>0.07513389598492388</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -3415,19 +3415,19 @@
         <v>29703</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21402</v>
+        <v>21373</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41346</v>
+        <v>40874</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04417645442027696</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03183089816027006</v>
+        <v>0.03178778789587551</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06149280645564112</v>
+        <v>0.06079072457425745</v>
       </c>
     </row>
     <row r="11">
@@ -3444,19 +3444,19 @@
         <v>305467</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>296600</v>
+        <v>295556</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>310870</v>
+        <v>310606</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9666890242374977</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9386296884619733</v>
+        <v>0.9353256218041811</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9837865424773471</v>
+        <v>0.9829530749299759</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>506</v>
@@ -3465,19 +3465,19 @@
         <v>337204</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>329812</v>
+        <v>329605</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>343592</v>
+        <v>343627</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9461894276734347</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9254487023487539</v>
+        <v>0.9248661040150761</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9641151996921601</v>
+        <v>0.9642128147928523</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>856</v>
@@ -3486,19 +3486,19 @@
         <v>642672</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>631029</v>
+        <v>631501</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>650973</v>
+        <v>651002</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.955823545579723</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.938507193544359</v>
+        <v>0.9392092754257424</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9681691018397298</v>
+        <v>0.9682122121041246</v>
       </c>
     </row>
     <row r="12">
@@ -3590,19 +3590,19 @@
         <v>21524</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12175</v>
+        <v>11566</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34539</v>
+        <v>35957</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05768336053191614</v>
+        <v>0.05768336053191615</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03262921211889599</v>
+        <v>0.03099606839819306</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09256160945293446</v>
+        <v>0.09636129967398764</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -3611,19 +3611,19 @@
         <v>24601</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16562</v>
+        <v>17024</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37219</v>
+        <v>36833</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05830162264124582</v>
+        <v>0.05830162264124585</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03924959040154345</v>
+        <v>0.04034488760954392</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08820508692255111</v>
+        <v>0.08728976082530399</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -3632,19 +3632,19 @@
         <v>46125</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34776</v>
+        <v>33394</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63822</v>
+        <v>65204</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05801147092462438</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04373798943672347</v>
+        <v>0.04199965245898628</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08026901252453071</v>
+        <v>0.08200620840387124</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>351621</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>338606</v>
+        <v>337188</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>360970</v>
+        <v>361579</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9423166394680839</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9074383905470654</v>
+        <v>0.9036387003260123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9673707878811039</v>
+        <v>0.969003931601807</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>569</v>
@@ -3682,19 +3682,19 @@
         <v>397360</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>384742</v>
+        <v>385128</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>405399</v>
+        <v>404937</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9416983773587543</v>
+        <v>0.9416983773587544</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9117949130774491</v>
+        <v>0.9127102391746964</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9607504095984566</v>
+        <v>0.9596551123904561</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>844</v>
@@ -3703,19 +3703,19 @@
         <v>748982</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>731285</v>
+        <v>729903</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>760331</v>
+        <v>761713</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9419885290753756</v>
+        <v>0.9419885290753754</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9197309874754696</v>
+        <v>0.9179937915961287</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9562620105632766</v>
+        <v>0.9580003475410138</v>
       </c>
     </row>
     <row r="15">
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5154</v>
+        <v>4517</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007227066103742725</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02506232698133928</v>
+        <v>0.02196103969046888</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -3828,19 +3828,19 @@
         <v>3368</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1609</v>
+        <v>1671</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6697</v>
+        <v>6261</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01482078960032331</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0070792939003458</v>
+        <v>0.007355138736601728</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02947417598767586</v>
+        <v>0.0275540536134031</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -3849,19 +3849,19 @@
         <v>4854</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2344</v>
+        <v>2459</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8721</v>
+        <v>8726</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01121294649755716</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005415183253126051</v>
+        <v>0.00568056318727147</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0201467411394843</v>
+        <v>0.02015785070781665</v>
       </c>
     </row>
     <row r="17">
@@ -3878,16 +3878,16 @@
         <v>204179</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>200511</v>
+        <v>201148</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>205665</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9927729338962571</v>
+        <v>0.9927729338962574</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9749376730186603</v>
+        <v>0.9780389603095311</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3899,19 +3899,19 @@
         <v>223847</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>220518</v>
+        <v>220954</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>225606</v>
+        <v>225544</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9851792103996768</v>
+        <v>0.9851792103996766</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9705258240123262</v>
+        <v>0.9724459463865966</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9929207060996542</v>
+        <v>0.9926448612633982</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>761</v>
@@ -3920,19 +3920,19 @@
         <v>428025</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>424158</v>
+        <v>424153</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>430535</v>
+        <v>430420</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9887870535024428</v>
+        <v>0.988787053502443</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.979853258860515</v>
+        <v>0.9798421492921833</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9945848167468739</v>
+        <v>0.9943194368127285</v>
       </c>
     </row>
     <row r="18">
@@ -4024,19 +4024,19 @@
         <v>6754</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3214</v>
+        <v>3461</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11980</v>
+        <v>12910</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02494800259899495</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01187267708025053</v>
+        <v>0.01278625324358156</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04425471340519962</v>
+        <v>0.04769169646556157</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -4045,19 +4045,19 @@
         <v>9241</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5540</v>
+        <v>5501</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14762</v>
+        <v>14648</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03503661210598517</v>
+        <v>0.03503661210598515</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02100472518580425</v>
+        <v>0.02085645821389008</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05596839280727947</v>
+        <v>0.05553802181110402</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -4066,19 +4066,19 @@
         <v>15995</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10598</v>
+        <v>10725</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23187</v>
+        <v>23976</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02992664887426707</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01982988946387347</v>
+        <v>0.02006713921554658</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04338407894611454</v>
+        <v>0.0448600962839831</v>
       </c>
     </row>
     <row r="20">
@@ -4095,19 +4095,19 @@
         <v>263953</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>258727</v>
+        <v>257797</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>267493</v>
+        <v>267246</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9750519974010052</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9557452865948007</v>
+        <v>0.9523083035344388</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9881273229197494</v>
+        <v>0.9872137467564186</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>443</v>
@@ -4116,19 +4116,19 @@
         <v>254509</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>248988</v>
+        <v>249102</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>258210</v>
+        <v>258249</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.964963387894015</v>
+        <v>0.9649633878940147</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9440316071927205</v>
+        <v>0.9444619781888958</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9789952748141958</v>
+        <v>0.9791435417861101</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>804</v>
@@ -4137,19 +4137,19 @@
         <v>518462</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>511270</v>
+        <v>510481</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>523859</v>
+        <v>523732</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.970073351125733</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9566159210538855</v>
+        <v>0.9551399037160169</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9801701105361263</v>
+        <v>0.9799328607844535</v>
       </c>
     </row>
     <row r="21">
@@ -4241,19 +4241,19 @@
         <v>34213</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21843</v>
+        <v>22273</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53042</v>
+        <v>53211</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04753901976599587</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03035037920392437</v>
+        <v>0.03094786010528581</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07370137522604289</v>
+        <v>0.07393585495237741</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -4262,19 +4262,19 @@
         <v>49891</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37362</v>
+        <v>38966</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67389</v>
+        <v>66499</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06462084664899251</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04839283849066696</v>
+        <v>0.05047035439119296</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08728526256148922</v>
+        <v>0.08613190128761081</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>75</v>
@@ -4283,19 +4283,19 @@
         <v>84104</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>66950</v>
+        <v>66339</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>108504</v>
+        <v>107209</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.05637977375358563</v>
+        <v>0.05637977375358562</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04488042007974456</v>
+        <v>0.04447074176077942</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07273657148323169</v>
+        <v>0.07186807386773272</v>
       </c>
     </row>
     <row r="23">
@@ -4312,19 +4312,19 @@
         <v>685474</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>666645</v>
+        <v>666476</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>697844</v>
+        <v>697414</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9524609802340043</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9262986247739572</v>
+        <v>0.9260641450476226</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9696496207960756</v>
+        <v>0.9690521398947142</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>907</v>
@@ -4333,19 +4333,19 @@
         <v>722166</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>704668</v>
+        <v>705558</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>734695</v>
+        <v>733091</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9353791533510073</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9127147374385108</v>
+        <v>0.9138680987123889</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.951607161509333</v>
+        <v>0.949529645608807</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1484</v>
@@ -4354,19 +4354,19 @@
         <v>1407640</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1383240</v>
+        <v>1384535</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1424794</v>
+        <v>1425405</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9436202262464144</v>
+        <v>0.9436202262464145</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9272634285167684</v>
+        <v>0.9281319261322671</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9551195799202554</v>
+        <v>0.9555292582392203</v>
       </c>
     </row>
     <row r="24">
@@ -4458,19 +4458,19 @@
         <v>19656</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12056</v>
+        <v>11556</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30506</v>
+        <v>30297</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0246296814278687</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01510584725849819</v>
+        <v>0.0144796488979614</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03822448820981215</v>
+        <v>0.03796256527290849</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -4479,19 +4479,19 @@
         <v>21434</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14628</v>
+        <v>14871</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30868</v>
+        <v>30971</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02578308286854115</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01759594198807117</v>
+        <v>0.01788857507800328</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03713105403403429</v>
+        <v>0.03725470458041364</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -4500,19 +4500,19 @@
         <v>41091</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>29772</v>
+        <v>30050</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>55774</v>
+        <v>55014</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02521815382434953</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01827147964828759</v>
+        <v>0.01844232861641039</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03422995758132873</v>
+        <v>0.03376335775673904</v>
       </c>
     </row>
     <row r="26">
@@ -4529,19 +4529,19 @@
         <v>778416</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>767566</v>
+        <v>767775</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>786016</v>
+        <v>786516</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9753703185721312</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9617755117901878</v>
+        <v>0.9620374347270914</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9848941527415018</v>
+        <v>0.9855203511020387</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1033</v>
@@ -4550,19 +4550,19 @@
         <v>809897</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>800463</v>
+        <v>800360</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>816703</v>
+        <v>816460</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9742169171314589</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9628689459659662</v>
+        <v>0.9627452954195874</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9824040580119294</v>
+        <v>0.9821114249219973</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1777</v>
@@ -4571,19 +4571,19 @@
         <v>1588312</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1573629</v>
+        <v>1574389</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1599631</v>
+        <v>1599353</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9747818461756503</v>
+        <v>0.9747818461756504</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9657700424186708</v>
+        <v>0.966236642243261</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9817285203517123</v>
+        <v>0.9815576713835897</v>
       </c>
     </row>
     <row r="27">
@@ -4675,19 +4675,19 @@
         <v>117165</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>91860</v>
+        <v>94361</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>145491</v>
+        <v>146908</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03316528034664142</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0260022645803526</v>
+        <v>0.02671027860354879</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04118333009584633</v>
+        <v>0.04158450212502518</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>209</v>
@@ -4696,19 +4696,19 @@
         <v>157192</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>136875</v>
+        <v>132763</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>181722</v>
+        <v>180921</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04209791131418508</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03665668370703861</v>
+        <v>0.0355555203766823</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04866720368316724</v>
+        <v>0.04845278414953993</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>304</v>
@@ -4717,19 +4717,19 @@
         <v>274357</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>241470</v>
+        <v>242499</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>311414</v>
+        <v>313084</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0377552635361291</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03322955044249112</v>
+        <v>0.0333710686419047</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04285481048967529</v>
+        <v>0.043084504302183</v>
       </c>
     </row>
     <row r="29">
@@ -4746,19 +4746,19 @@
         <v>3415597</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3387271</v>
+        <v>3385854</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3440902</v>
+        <v>3438401</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9668347196533585</v>
+        <v>0.9668347196533587</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9588166699041536</v>
+        <v>0.9584154978749748</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9739977354196475</v>
+        <v>0.9732897213964511</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5153</v>
@@ -4767,19 +4767,19 @@
         <v>3576778</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3552248</v>
+        <v>3553049</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3597095</v>
+        <v>3601207</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9579020886858149</v>
+        <v>0.9579020886858147</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9513327963168327</v>
+        <v>0.9515472158504601</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9633433162929614</v>
+        <v>0.9644444796233176</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8434</v>
@@ -4788,19 +4788,19 @@
         <v>6992375</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6955318</v>
+        <v>6953648</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7025262</v>
+        <v>7024233</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9622447364638709</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9571451895103248</v>
+        <v>0.9569154956978169</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.966770449557509</v>
+        <v>0.9666289313580954</v>
       </c>
     </row>
     <row r="30">
